--- a/LF/TAS/Senegal/TAS2/Mai 2024/sn_lf_itas_2406_1_sit_part.xlsx
+++ b/LF/TAS/Senegal/TAS2/Mai 2024/sn_lf_itas_2406_1_sit_part.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Senegal\TAS2\Mai 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4122BE34-FD6A-49F9-9020-000C1152231B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7119A141-D33B-420F-940F-378646D9FE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -593,9 +593,6 @@
     <t>Le format du QR Code est incorrect. Exemple SENITAS1234</t>
   </si>
   <si>
-    <t>sn_lf_itas_2406_1_sit_part</t>
-  </si>
-  <si>
     <t>(2024 Juin) 1. TAS2 - Formulaire Site &amp; Elève</t>
   </si>
   <si>
@@ -621,6 +618,9 @@
   </si>
   <si>
     <t>sn_lf_p_2406</t>
+  </si>
+  <si>
+    <t>sn_lf_tas2_2406_1_sit_part</t>
   </si>
 </sst>
 </file>
@@ -1085,95 +1085,7 @@
     <cellStyle name="Normal 8" xfId="8" xr:uid="{1C902967-7DC7-4FA3-966B-FD339B4B33F2}"/>
     <cellStyle name="Normal 9" xfId="9" xr:uid="{BBFB944D-49BF-4874-81A2-EE3FF7D94B09}"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1287,7 +1199,8 @@
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -1374,8 +1287,7 @@
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
+        <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -1669,7 +1581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+    <sheetView zoomScale="78" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2059,7 +1971,7 @@
         <v>120</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>121</v>
@@ -2787,10 +2699,10 @@
         <v>52</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>152</v>
@@ -2801,10 +2713,10 @@
         <v>52</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>152</v>
@@ -2894,7 +2806,7 @@
         <v>155</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2908,7 +2820,7 @@
         <v>168</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2922,7 +2834,7 @@
         <v>156</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2936,7 +2848,7 @@
         <v>157</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2944,13 +2856,13 @@
         <v>53</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2964,7 +2876,7 @@
         <v>158</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2978,7 +2890,7 @@
         <v>145</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2992,7 +2904,7 @@
         <v>146</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3006,7 +2918,7 @@
         <v>159</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3020,7 +2932,7 @@
         <v>170</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3034,7 +2946,7 @@
         <v>160</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3048,7 +2960,7 @@
         <v>161</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3062,7 +2974,7 @@
         <v>147</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3076,7 +2988,7 @@
         <v>151</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3090,7 +3002,7 @@
         <v>162</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3104,7 +3016,7 @@
         <v>148</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3118,7 +3030,7 @@
         <v>163</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3132,7 +3044,7 @@
         <v>164</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3146,7 +3058,7 @@
         <v>150</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3160,7 +3072,7 @@
         <v>165</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3168,13 +3080,13 @@
         <v>53</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3188,7 +3100,7 @@
         <v>149</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3196,13 +3108,13 @@
         <v>53</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3216,7 +3128,7 @@
         <v>166</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3230,7 +3142,7 @@
         <v>167</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3552,7 +3464,7 @@
         <v>122</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3594,7 +3506,7 @@
         <v>125</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3664,13 +3576,13 @@
         <v>130</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <conditionalFormatting sqref="C15:C19">
-    <cfRule type="duplicateValues" dxfId="27" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="245"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3681,8 +3593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3705,10 +3617,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>61</v>
@@ -3743,10 +3655,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
       <c r="A1" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C1" s="44" t="s">
         <v>141</v>
@@ -3758,10 +3670,10 @@
         <v>176</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J1" s="44" t="s">
         <v>141</v>
@@ -3826,7 +3738,7 @@
         <v>152</v>
       </c>
       <c r="J3" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L3" s="41" t="s">
         <v>142</v>
@@ -3855,7 +3767,7 @@
         <v>152</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L4" s="41" t="s">
         <v>142</v>
@@ -3872,7 +3784,7 @@
         <v>152</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>155</v>
@@ -3901,7 +3813,7 @@
         <v>152</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>156</v>
@@ -3912,7 +3824,7 @@
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
       <c r="L6" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M6" s="31" t="s">
         <v>155</v>
@@ -3926,7 +3838,7 @@
         <v>152</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>157</v>
@@ -3935,7 +3847,7 @@
         <v>106</v>
       </c>
       <c r="L7" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M7" s="32" t="s">
         <v>168</v>
@@ -3949,7 +3861,7 @@
         <v>152</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>158</v>
@@ -3958,7 +3870,7 @@
         <v>107</v>
       </c>
       <c r="L8" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M8" s="31" t="s">
         <v>156</v>
@@ -3972,7 +3884,7 @@
         <v>152</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>145</v>
@@ -3981,7 +3893,7 @@
         <v>108</v>
       </c>
       <c r="L9" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M9" s="31" t="s">
         <v>157</v>
@@ -3995,7 +3907,7 @@
         <v>152</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>146</v>
@@ -4004,10 +3916,10 @@
         <v>109</v>
       </c>
       <c r="L10" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M10" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickBot="1">
@@ -4018,7 +3930,7 @@
         <v>152</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>159</v>
@@ -4027,7 +3939,7 @@
         <v>110</v>
       </c>
       <c r="L11" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M11" s="31" t="s">
         <v>158</v>
@@ -4041,7 +3953,7 @@
         <v>152</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>160</v>
@@ -4050,7 +3962,7 @@
         <v>111</v>
       </c>
       <c r="L12" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M12" s="31" t="s">
         <v>145</v>
@@ -4064,7 +3976,7 @@
         <v>152</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>161</v>
@@ -4073,7 +3985,7 @@
         <v>112</v>
       </c>
       <c r="L13" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M13" s="31" t="s">
         <v>146</v>
@@ -4087,7 +3999,7 @@
         <v>152</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>147</v>
@@ -4096,7 +4008,7 @@
         <v>113</v>
       </c>
       <c r="L14" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M14" s="31" t="s">
         <v>159</v>
@@ -4110,7 +4022,7 @@
         <v>152</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>162</v>
@@ -4119,7 +4031,7 @@
         <v>114</v>
       </c>
       <c r="L15" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M15" s="32" t="s">
         <v>170</v>
@@ -4133,7 +4045,7 @@
         <v>152</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>148</v>
@@ -4142,7 +4054,7 @@
         <v>115</v>
       </c>
       <c r="L16" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M16" s="31" t="s">
         <v>160</v>
@@ -4156,7 +4068,7 @@
         <v>152</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>167</v>
@@ -4165,7 +4077,7 @@
         <v>116</v>
       </c>
       <c r="L17" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M17" s="31" t="s">
         <v>161</v>
@@ -4179,7 +4091,7 @@
         <v>152</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>166</v>
@@ -4188,7 +4100,7 @@
         <v>117</v>
       </c>
       <c r="L18" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M18" s="31" t="s">
         <v>147</v>
@@ -4202,7 +4114,7 @@
         <v>152</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>163</v>
@@ -4211,7 +4123,7 @@
         <v>118</v>
       </c>
       <c r="L19" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M19" s="32" t="s">
         <v>151</v>
@@ -4225,7 +4137,7 @@
         <v>152</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>164</v>
@@ -4234,7 +4146,7 @@
         <v>119</v>
       </c>
       <c r="L20" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M20" s="31" t="s">
         <v>162</v>
@@ -4248,7 +4160,7 @@
         <v>152</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>165</v>
@@ -4257,7 +4169,7 @@
         <v>120</v>
       </c>
       <c r="L21" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M21" s="31" t="s">
         <v>148</v>
@@ -4271,7 +4183,7 @@
         <v>152</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>149</v>
@@ -4280,7 +4192,7 @@
         <v>121</v>
       </c>
       <c r="L22" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M22" s="31" t="s">
         <v>163</v>
@@ -4294,16 +4206,16 @@
         <v>152</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E23">
         <v>122</v>
       </c>
       <c r="L23" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M23" s="31" t="s">
         <v>164</v>
@@ -4317,7 +4229,7 @@
         <v>152</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>150</v>
@@ -4326,7 +4238,7 @@
         <v>123</v>
       </c>
       <c r="L24" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M24" s="32" t="s">
         <v>150</v>
@@ -4340,7 +4252,7 @@
         <v>152</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>168</v>
@@ -4349,7 +4261,7 @@
         <v>124</v>
       </c>
       <c r="L25" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M25" s="31" t="s">
         <v>165</v>
@@ -4363,19 +4275,19 @@
         <v>152</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E26">
         <v>125</v>
       </c>
       <c r="L26" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M26" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" thickBot="1">
@@ -4395,7 +4307,7 @@
         <v>126</v>
       </c>
       <c r="L27" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M27" s="31" t="s">
         <v>149</v>
@@ -4409,7 +4321,7 @@
         <v>152</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>170</v>
@@ -4418,10 +4330,10 @@
         <v>127</v>
       </c>
       <c r="L28" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M28" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="16.5" thickBot="1">
@@ -4441,7 +4353,7 @@
         <v>128</v>
       </c>
       <c r="L29" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M29" s="31" t="s">
         <v>166</v>
@@ -4455,7 +4367,7 @@
         <v>152</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>151</v>
@@ -4464,7 +4376,7 @@
         <v>129</v>
       </c>
       <c r="L30" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M30" s="31" t="s">
         <v>167</v>
@@ -4478,10 +4390,10 @@
         <v>152</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E31">
         <v>130</v>
@@ -4504,93 +4416,93 @@
     <sortCondition ref="L2:L31"/>
     <sortCondition ref="M2:M31"/>
   </sortState>
+  <conditionalFormatting sqref="A1:B31">
+    <cfRule type="duplicateValues" dxfId="18" priority="252"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="expression" dxfId="26" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
       <formula>AND(COUNTIF($D$9:$D$14, D2)&gt;1,NOT(ISBLANK(D2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D16 D25 D28 D30">
+    <cfRule type="expression" dxfId="16" priority="251" stopIfTrue="1">
+      <formula>AND(COUNTIF($D$15:$D$37, D5)&gt;1,NOT(ISBLANK(D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D17:D22">
-    <cfRule type="expression" dxfId="25" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
       <formula>AND(COUNTIF($D$38:$D$52, D17)&gt;1,NOT(ISBLANK(D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D24">
-    <cfRule type="expression" dxfId="24" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>AND(COUNTIF($D$38:$D$69, D23)&gt;1,NOT(ISBLANK(D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="23" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>AND(COUNTIF($D$38:$D$69, D26)&gt;1,NOT(ISBLANK(D26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="22" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
       <formula>AND(COUNTIF($D$9:$D$14, D27)&gt;1,NOT(ISBLANK(D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="21" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>AND(COUNTIF($D$38:$D$69, D29)&gt;1,NOT(ISBLANK(D29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="20" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>AND(COUNTIF($D$38:$D$69, D31)&gt;1,NOT(ISBLANK(D31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D16 D25 D28 D30">
-    <cfRule type="expression" dxfId="19" priority="251" stopIfTrue="1">
-      <formula>AND(COUNTIF($D$15:$D$37, D5)&gt;1,NOT(ISBLANK(D5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B31">
-    <cfRule type="duplicateValues" dxfId="18" priority="252"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G1:G3">
-    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I6">
-    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M4">
     <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
       <formula>AND(COUNTIF($D$9:$D$14, M2)&gt;1,NOT(ISBLANK(M2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M16 M25 M28 M30">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+      <formula>AND(COUNTIF($D$15:$D$37, M5)&gt;1,NOT(ISBLANK(M5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M17:M22">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
       <formula>AND(COUNTIF($D$38:$D$52, M17)&gt;1,NOT(ISBLANK(M17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23:M24">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>AND(COUNTIF($D$38:$D$69, M23)&gt;1,NOT(ISBLANK(M23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26">
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>AND(COUNTIF($D$38:$D$69, M26)&gt;1,NOT(ISBLANK(M26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>AND(COUNTIF($D$9:$D$14, M27)&gt;1,NOT(ISBLANK(M27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>AND(COUNTIF($D$38:$D$69, M29)&gt;1,NOT(ISBLANK(M29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>AND(COUNTIF($D$38:$D$69, M31)&gt;1,NOT(ISBLANK(M31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M16 M25 M28 M30">
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>AND(COUNTIF($D$15:$D$37, M5)&gt;1,NOT(ISBLANK(M5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
